--- a/sym_list.xlsx
+++ b/sym_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="-120" windowWidth="19320" windowHeight="11760"/>
+    <workbookView xWindow="8340" yWindow="-120" windowWidth="19320" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="sym_list" sheetId="1" r:id="rId1"/>
@@ -4193,12 +4193,6 @@
     <t>Rolls-Royce Holdings</t>
   </si>
   <si>
-    <t>RBS.L</t>
-  </si>
-  <si>
-    <t>Royal Bank of Scotland Group</t>
-  </si>
-  <si>
     <t>RDSA.L</t>
   </si>
   <si>
@@ -4353,6 +4347,12 @@
   </si>
   <si>
     <t>SE</t>
+  </si>
+  <si>
+    <t>NWG.L</t>
+  </si>
+  <si>
+    <t>NatWest Group</t>
   </si>
 </sst>
 </file>
@@ -5196,8 +5196,8 @@
   <dimension ref="A1:O719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A609" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C621" sqref="C621"/>
+      <pane ySplit="1" topLeftCell="A688" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B699" sqref="B699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20316,7 +20316,7 @@
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="B324" t="s">
         <v>670</v>
@@ -20364,7 +20364,7 @@
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B325" t="s">
         <v>671</v>
@@ -34530,7 +34530,7 @@
         <v>1239</v>
       </c>
       <c r="C620" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="D620">
         <v>0</v>
@@ -35388,7 +35388,7 @@
     </row>
     <row r="638" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B638" t="s">
         <v>1274</v>
@@ -37500,10 +37500,10 @@
     </row>
     <row r="682" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>1361</v>
+        <v>1439</v>
       </c>
       <c r="B682" t="s">
-        <v>1362</v>
+        <v>1440</v>
       </c>
       <c r="C682" t="s">
         <v>20</v>
@@ -37542,16 +37542,16 @@
         <v>1</v>
       </c>
       <c r="O682" t="str">
-        <f t="shared" si="10"/>
+        <f>CONCATENATE(D682,E682,F682,G682,H682,I682,J682,K682,L682,M682,N682)</f>
         <v>00000000001</v>
       </c>
     </row>
     <row r="683" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="B683" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="C683" t="s">
         <v>20</v>
@@ -37596,10 +37596,10 @@
     </row>
     <row r="684" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="B684" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="C684" t="s">
         <v>20</v>
@@ -37644,10 +37644,10 @@
     </row>
     <row r="685" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B685" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C685" t="s">
         <v>20</v>
@@ -37692,10 +37692,10 @@
     </row>
     <row r="686" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B686" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C686" t="s">
         <v>20</v>
@@ -37740,10 +37740,10 @@
     </row>
     <row r="687" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B687" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C687" t="s">
         <v>20</v>
@@ -37788,10 +37788,10 @@
     </row>
     <row r="688" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B688" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C688" t="s">
         <v>20</v>
@@ -37836,10 +37836,10 @@
     </row>
     <row r="689" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B689" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C689" t="s">
         <v>20</v>
@@ -37884,10 +37884,10 @@
     </row>
     <row r="690" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B690" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C690" t="s">
         <v>20</v>
@@ -37932,10 +37932,10 @@
     </row>
     <row r="691" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B691" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C691" t="s">
         <v>20</v>
@@ -37980,10 +37980,10 @@
     </row>
     <row r="692" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B692" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C692" t="s">
         <v>20</v>
@@ -38028,10 +38028,10 @@
     </row>
     <row r="693" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B693" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C693" t="s">
         <v>20</v>
@@ -38076,10 +38076,10 @@
     </row>
     <row r="694" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B694" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C694" t="s">
         <v>20</v>
@@ -38124,10 +38124,10 @@
     </row>
     <row r="695" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B695" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C695" t="s">
         <v>20</v>
@@ -38172,10 +38172,10 @@
     </row>
     <row r="696" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B696" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C696" t="s">
         <v>20</v>
@@ -38220,10 +38220,10 @@
     </row>
     <row r="697" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B697" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C697" t="s">
         <v>20</v>
@@ -38268,10 +38268,10 @@
     </row>
     <row r="698" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B698" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C698" t="s">
         <v>20</v>
@@ -38316,10 +38316,10 @@
     </row>
     <row r="699" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B699" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C699" t="s">
         <v>20</v>
@@ -38364,10 +38364,10 @@
     </row>
     <row r="700" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B700" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C700" t="s">
         <v>20</v>
@@ -38412,10 +38412,10 @@
     </row>
     <row r="701" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B701" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C701" t="s">
         <v>20</v>
@@ -38460,10 +38460,10 @@
     </row>
     <row r="702" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B702" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C702" t="s">
         <v>20</v>
@@ -38508,10 +38508,10 @@
     </row>
     <row r="703" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B703" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C703" t="s">
         <v>20</v>
@@ -38556,10 +38556,10 @@
     </row>
     <row r="704" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B704" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C704" t="s">
         <v>20</v>
@@ -38604,10 +38604,10 @@
     </row>
     <row r="705" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B705" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C705" t="s">
         <v>20</v>
@@ -38652,10 +38652,10 @@
     </row>
     <row r="706" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B706" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C706" t="s">
         <v>20</v>
@@ -38700,10 +38700,10 @@
     </row>
     <row r="707" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B707" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C707" t="s">
         <v>20</v>
@@ -38748,10 +38748,10 @@
     </row>
     <row r="708" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B708" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C708" t="s">
         <v>20</v>
@@ -38796,10 +38796,10 @@
     </row>
     <row r="709" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B709" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C709" t="s">
         <v>20</v>
@@ -38844,10 +38844,10 @@
     </row>
     <row r="710" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B710" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C710" t="s">
         <v>20</v>
@@ -38892,10 +38892,10 @@
     </row>
     <row r="711" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B711" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="C711" t="s">
         <v>20</v>
@@ -38940,10 +38940,10 @@
     </row>
     <row r="712" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B712" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C712" t="s">
         <v>20</v>
@@ -38988,10 +38988,10 @@
     </row>
     <row r="713" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="B713" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="C713" t="s">
         <v>20</v>
@@ -39036,10 +39036,10 @@
     </row>
     <row r="714" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="B714" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="C714" t="s">
         <v>20</v>
@@ -39084,10 +39084,10 @@
     </row>
     <row r="715" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="B715" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="C715" t="s">
         <v>20</v>
@@ -39132,10 +39132,10 @@
     </row>
     <row r="716" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B716" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="C716" t="s">
         <v>20</v>
@@ -39180,10 +39180,10 @@
     </row>
     <row r="717" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="B717" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="C717" t="s">
         <v>20</v>
@@ -39228,10 +39228,10 @@
     </row>
     <row r="718" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="B718" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="C718" t="s">
         <v>20</v>
@@ -39276,10 +39276,10 @@
     </row>
     <row r="719" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="B719" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="C719" t="s">
         <v>20</v>
